--- a/excels/example.xlsx
+++ b/excels/example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\Python\Python\03_高级\QQ_nonebot\kiki_projects_for_TCC\kiki_bot\kiki_bot\plugins\nonebot-plugin-kiki\resources\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\Python\Python\03_高级\QQ_nonebot\kiki_projects_for_TCC\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55389D79-C926-4BC1-BEBB-6140DE15A75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9530395D-E722-4601-BB21-94FDA3146D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
-  <si>
-    <t>Fiinally</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>☑</t>
   </si>
@@ -121,6 +118,14 @@
   </si>
   <si>
     <t>passed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiinally</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tinyshellzzz</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -221,11 +226,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -240,6 +265,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -522,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -536,16 +570,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1">
       <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18">
@@ -553,13 +587,13 @@
         <v>2317</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3">
         <v>1787882104</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18">
@@ -567,13 +601,13 @@
         <v>2318</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
         <v>1702885512</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18">
@@ -581,13 +615,13 @@
         <v>2319</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3">
         <v>341034565</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18">
@@ -595,13 +629,13 @@
         <v>2320</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3">
         <v>2602075018</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18">
@@ -609,13 +643,13 @@
         <v>2321</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3">
         <v>334294441</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18">
@@ -623,13 +657,13 @@
         <v>2322</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3">
         <v>750395572</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18">
@@ -637,13 +671,13 @@
         <v>2323</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3">
         <v>512346994</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18">
@@ -651,13 +685,13 @@
         <v>2324</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3">
         <v>3817955387</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18">
@@ -665,13 +699,13 @@
         <v>2325</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3">
         <v>1050690856</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18">
@@ -679,13 +713,13 @@
         <v>2326</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3">
         <v>2210068332</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18">
@@ -693,13 +727,13 @@
         <v>2327</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3">
         <v>2657206915</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18">
@@ -707,13 +741,13 @@
         <v>2328</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3">
         <v>1770297463</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18">
@@ -721,13 +755,13 @@
         <v>2329</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3">
         <v>197077917</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18">
@@ -735,13 +769,13 @@
         <v>2330</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3">
         <v>3634416708</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18">
@@ -749,13 +783,13 @@
         <v>2331</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3">
         <v>1596527098</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18">
@@ -763,13 +797,13 @@
         <v>2332</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3">
         <v>2806303431</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18">
@@ -777,13 +811,13 @@
         <v>2333</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="3">
         <v>2239171760</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18">
@@ -791,13 +825,13 @@
         <v>2334</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3">
         <v>1810306022</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18">
@@ -805,13 +839,13 @@
         <v>2335</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3">
         <v>2423880356</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18">
@@ -819,13 +853,13 @@
         <v>2336</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="3">
         <v>2357976152</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18">
@@ -833,13 +867,13 @@
         <v>2337</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="3">
         <v>2034268810</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18">
@@ -847,13 +881,13 @@
         <v>2338</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="3">
         <v>2491812399</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
@@ -861,13 +895,13 @@
         <v>2339</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="3">
         <v>2154691778</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18">
@@ -875,13 +909,13 @@
         <v>2340</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="3">
         <v>1696817708</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18">
@@ -889,14 +923,31 @@
         <v>2341</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="3">
         <v>3999387901</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18">
+      <c r="A27" s="6">
+        <v>11</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="8">
+        <v>3478848836</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18">
+      <c r="A28" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/excels/example.xlsx
+++ b/excels/example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\Python\Python\03_高级\QQ_nonebot\kiki_projects_for_TCC\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\Python\Python\03_Advance\QQ_nonebot\kiki_projects_for_TCC\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9530395D-E722-4601-BB21-94FDA3146D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FE9E4D-A4EA-4979-A36F-8D8DD1BB8CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>☑</t>
   </si>
@@ -122,10 +122,6 @@
   </si>
   <si>
     <t>Fiinally</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tinyshellzzz</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -559,7 +555,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -590,7 +586,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="3">
-        <v>1787882104</v>
+        <v>1787</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -604,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>1702885512</v>
+        <v>1702</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>2</v>
@@ -618,7 +614,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>341034565</v>
+        <v>341</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
@@ -632,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3">
-        <v>2602075018</v>
+        <v>26028</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>0</v>
@@ -646,7 +642,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>334294441</v>
+        <v>334</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>0</v>
@@ -660,7 +656,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>750395572</v>
+        <v>750</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>0</v>
@@ -674,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>512346994</v>
+        <v>5123</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>0</v>
@@ -688,7 +684,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>3817955387</v>
+        <v>3817</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>0</v>
@@ -702,7 +698,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>1050690856</v>
+        <v>105069</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>0</v>
@@ -716,7 +712,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="3">
-        <v>2210068332</v>
+        <v>22100</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>0</v>
@@ -730,7 +726,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="3">
-        <v>2657206915</v>
+        <v>2657</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>0</v>
@@ -744,7 +740,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="3">
-        <v>1770297463</v>
+        <v>177029</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>2</v>
@@ -758,7 +754,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="3">
-        <v>197077917</v>
+        <v>1970</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>0</v>
@@ -772,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="3">
-        <v>3634416708</v>
+        <v>36344</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>0</v>
@@ -786,7 +782,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="3">
-        <v>1596527098</v>
+        <v>15965</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>2</v>
@@ -800,7 +796,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="3">
-        <v>2806303431</v>
+        <v>280631</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>0</v>
@@ -814,7 +810,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="3">
-        <v>2239171760</v>
+        <v>223917</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>0</v>
@@ -828,7 +824,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="3">
-        <v>1810306022</v>
+        <v>18103</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>0</v>
@@ -842,7 +838,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="3">
-        <v>2423880356</v>
+        <v>24238</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>0</v>
@@ -856,7 +852,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="3">
-        <v>2357976152</v>
+        <v>235792</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>0</v>
@@ -870,7 +866,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="3">
-        <v>2034268810</v>
+        <v>20342</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>2</v>
@@ -884,7 +880,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="3">
-        <v>2491812399</v>
+        <v>24918</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>2</v>
@@ -898,7 +894,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="3">
-        <v>2154691778</v>
+        <v>2154</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>2</v>
@@ -912,7 +908,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="3">
-        <v>1696817708</v>
+        <v>16968</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>0</v>
@@ -926,25 +922,17 @@
         <v>25</v>
       </c>
       <c r="C26" s="3">
-        <v>3999387901</v>
+        <v>3999</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18">
-      <c r="A27" s="6">
-        <v>11</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="8">
-        <v>3478848836</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" ht="18">
       <c r="A28" s="6"/>
